--- a/it_api/wwwroot/report/excel/Phieuluong.xlsx
+++ b/it_api/wwwroot/report/excel/Phieuluong.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\netcore\it_api\it_api\wwwroot\report\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A688CC-6ED6-438B-B224-33F066341AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B66D07-F97A-4959-8271-469EFAD01BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>STT</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Bảo Hiểm Thất Nghiệp (1%)</t>
   </si>
   <si>
-    <t>Xăng Xe</t>
-  </si>
-  <si>
     <t>Thuế Thu Nhập Cá Nhân</t>
   </si>
   <si>
@@ -113,18 +110,12 @@
     <t>Tạm ứng</t>
   </si>
   <si>
-    <t>Kinh Phí Công Đoàn</t>
-  </si>
-  <si>
     <t>KPI</t>
   </si>
   <si>
     <t>Phụ cấp bằng</t>
   </si>
   <si>
-    <t>Tổng Cộng</t>
-  </si>
-  <si>
     <t>Tổng Số Tiền Lương Thực Nhận (1)</t>
   </si>
   <si>
@@ -146,9 +137,6 @@
     <t>(Ký và ghi rõ họ tên)</t>
   </si>
   <si>
-    <t>Liên 1</t>
-  </si>
-  <si>
     <t>Kinh Phí Công Đoàn (1%)</t>
   </si>
   <si>
@@ -158,13 +146,19 @@
     <t>PC Chức vụ</t>
   </si>
   <si>
-    <t>Truy thu thuế năm 2023</t>
-  </si>
-  <si>
     <t xml:space="preserve">Xăng Xe </t>
   </si>
   <si>
-    <t>Cộng</t>
+    <t>Các Khoản Trừ Khác</t>
+  </si>
+  <si>
+    <t>Khác</t>
+  </si>
+  <si>
+    <t>Tổng trừ</t>
+  </si>
+  <si>
+    <t>Tổng</t>
   </si>
 </sst>
 </file>
@@ -253,7 +247,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,18 +256,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -425,19 +413,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF000000"/>
       </left>
@@ -496,19 +471,6 @@
       <right style="hair">
         <color rgb="FF000000"/>
       </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <top style="hair">
         <color rgb="FF000000"/>
       </top>
@@ -613,19 +575,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF000000"/>
       </left>
@@ -764,20 +713,70 @@
       <diagonal/>
     </border>
     <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="hair">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="hair">
         <color rgb="FF000000"/>
       </right>
@@ -791,19 +790,23 @@
       <left style="hair">
         <color rgb="FF000000"/>
       </left>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="double">
         <color rgb="FF000000"/>
       </bottom>
@@ -812,127 +815,9 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="double">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom style="double">
         <color rgb="FF000000"/>
       </bottom>
@@ -944,64 +829,49 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1010,94 +880,177 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1105,166 +1058,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2410,7 +2216,7 @@
       <sheetName val="Doiso"/>
     </sheetNames>
     <definedNames>
-      <definedName name="VND"/>
+      <definedName name="vnd"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -2683,10 +2489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF311BD1-A915-4EEB-BA15-683419CCDFE8}">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2710,746 +2516,410 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="86"/>
+      <c r="A2" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
       <c r="H2" s="2">
         <v>45509</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="89"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
     </row>
     <row r="4" spans="1:8" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="90" t="str">
+      <c r="A4" s="43" t="str">
         <f>"PHIẾU LƯƠNG "&amp;MONTH($H$1)&amp;"/"&amp;YEAR($H$1)</f>
         <v>PHIẾU LƯƠNG 7/2024</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="92"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="45"/>
     </row>
     <row r="5" spans="1:8" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="93" t="str">
+      <c r="A5" s="46" t="str">
         <f>"Ngày lập: Ngày "&amp;DAY($H$2)&amp;" tháng "&amp;MONTH($H$2)&amp;" năm "&amp;YEAR($H$2)&amp;"                                                     Ngày thanh toán: "&amp;DAY($H$2)&amp;" tháng "&amp;MONTH($H$2)&amp;" năm "&amp;YEAR($H$2)</f>
         <v>Ngày lập: Ngày 5 tháng 8 năm 2024                                                     Ngày thanh toán: 5 tháng 8 năm 2024</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="95"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="48"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="98" t="s">
+      <c r="B6" s="50"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="99"/>
-      <c r="F6" s="36">
+      <c r="E6" s="52"/>
+      <c r="F6" s="18">
         <v>200000</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="82" t="s">
+      <c r="B7" s="54"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="38">
+      <c r="E7" s="56"/>
+      <c r="F7" s="20">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="73" t="s">
+      <c r="B8" s="58"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="74"/>
-      <c r="F8" s="6">
+      <c r="E8" s="60"/>
+      <c r="F8" s="4">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46">
+      <c r="A10" s="25">
         <v>1</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="11">
         <v>100000</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="25">
         <v>1</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="11">
         <f>SUM(F11:F13)</f>
         <v>21000</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="46">
+      <c r="A11" s="25">
         <v>2</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="11">
         <f>SUM(C12:C14)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="20">
         <f>$F$6*8%</f>
         <v>16000</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="A12" s="12">
         <v>2.1</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="B12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3">
         <v>0</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="9">
         <v>1.2</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="20">
         <f>$F$6*1.5%</f>
         <v>3000</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="A13" s="12">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="11">
+      <c r="B13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
         <v>1.3</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="20">
         <f>$F$6*1%</f>
         <v>2000</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="A14" s="12">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3">
         <v>0</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="25">
         <v>2</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="37">
+      <c r="E14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="19">
         <v>100000</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="46">
+      <c r="A15" s="25">
         <v>3</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="13">
+      <c r="B15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="11">
         <v>10000000</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="25">
         <v>3</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="17"/>
+      <c r="E15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="49">
+      <c r="A16" s="27">
         <v>4</v>
       </c>
-      <c r="B16" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="46">
+      <c r="B16" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="25">
         <v>4</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="37">
+      <c r="E16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="19">
         <f>$F$6*1%</f>
         <v>2000</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="109" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="109"/>
-      <c r="C17" s="53">
-        <f>C10+C11+C15</f>
+      <c r="A17" s="78">
+        <v>5</v>
+      </c>
+      <c r="B17" s="79" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="80"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="63"/>
+      <c r="C18" s="30">
+        <f>C10+C11+C15 + C16 + C17</f>
         <v>10100000</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
+      <c r="D18" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="62"/>
+      <c r="F18" s="15">
+        <f>F10+F14+F15+F16</f>
+        <v>123000</v>
+      </c>
     </row>
-    <row r="18" spans="1:10" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="107" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="108"/>
-      <c r="C18" s="52">
-        <v>100000</v>
-      </c>
-      <c r="D18" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="76"/>
-      <c r="F18" s="20">
-        <f>F10+F14+F15+F16+F17</f>
-        <v>123000</v>
-      </c>
+    <row r="19" spans="1:10" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="35">
+        <f>C18 -F18</f>
+        <v>9977000</v>
+      </c>
+      <c r="E19" s="35"/>
+      <c r="F19" s="36"/>
     </row>
-    <row r="19" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="78"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="100">
-        <v>100000</v>
-      </c>
-      <c r="E19" s="101"/>
-      <c r="F19" s="102"/>
+    <row r="20" spans="1:10" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34">
+        <v>10000</v>
+      </c>
+      <c r="E20" s="35"/>
+      <c r="F20" s="36"/>
     </row>
-    <row r="20" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="100">
-        <v>1000</v>
-      </c>
-      <c r="E20" s="101"/>
-      <c r="F20" s="102"/>
-    </row>
-    <row r="21" spans="1:10" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="103" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="104"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="65" t="e">
-        <f ca="1">[2]!VND(D20)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E21" s="66"/>
-      <c r="F21" s="67"/>
-      <c r="J21" s="39"/>
+    <row r="21" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34">
+        <f>D19 - D20</f>
+        <v>9967000</v>
+      </c>
+      <c r="E21" s="35"/>
+      <c r="F21" s="36"/>
     </row>
     <row r="22" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="65"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="34">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="35"/>
+      <c r="F22" s="36"/>
+    </row>
+    <row r="23" spans="1:10" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="70" t="e">
+        <f ca="1">[2]!vnd(D22)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E23" s="71"/>
+      <c r="F23" s="72"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="65"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="73">
+        <f>+D21-D22</f>
+        <v>9966000</v>
+      </c>
+      <c r="E24" s="74"/>
+      <c r="F24" s="75"/>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="76"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="76"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="68">
-        <f>+D19-D20</f>
-        <v>99000</v>
-      </c>
-      <c r="E22" s="69"/>
-      <c r="F22" s="70"/>
-    </row>
-    <row r="23" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="54"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="55"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="84" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="86"/>
-    </row>
-    <row r="32" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="87" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="88"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="89"/>
-    </row>
-    <row r="33" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="90" t="str">
-        <f>"PHIẾU LƯƠNG "&amp;MONTH($H$1)&amp;"/"&amp;YEAR($H$1)</f>
-        <v>PHIẾU LƯƠNG 7/2024</v>
-      </c>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="92"/>
-    </row>
-    <row r="34" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="93" t="str">
-        <f>+A5</f>
-        <v>Ngày lập: Ngày 5 tháng 8 năm 2024                                                     Ngày thanh toán: 5 tháng 8 năm 2024</v>
-      </c>
-      <c r="B34" s="94"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="95"/>
-    </row>
-    <row r="35" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="96" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="97"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="98" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="99"/>
-      <c r="F35" s="43">
-        <f>F6</f>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="81"/>
-      <c r="C36" s="25">
-        <f>C7</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="82" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="83"/>
-      <c r="F36" s="26">
-        <f>F7</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="71" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="72"/>
-      <c r="C37" s="5">
-        <f>+C8</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="73" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="74"/>
-      <c r="F37" s="18">
-        <f>F8</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="32.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="46">
-        <v>1</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="27">
-        <f>C10</f>
-        <v>100000</v>
-      </c>
-      <c r="D39" s="46">
-        <v>1</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="28">
-        <f>F10</f>
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="46">
-        <v>2</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="29">
-        <f>C11</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="30">
-        <f>F11</f>
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="14">
-        <v>2.1</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="31">
-        <f>C12</f>
-        <v>0</v>
-      </c>
-      <c r="D41" s="11">
-        <v>1.2</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" s="30">
-        <f>F12</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="14">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="31"/>
-      <c r="D42" s="11">
-        <v>1.3</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" s="30">
-        <f>F13</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" s="31">
-        <f>C14</f>
-        <v>0</v>
-      </c>
-      <c r="D43" s="46">
-        <v>2</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F43" s="17">
-        <f>F14</f>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="46">
-        <v>3</v>
-      </c>
-      <c r="B44" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" s="35">
-        <f>C15</f>
-        <v>10000000</v>
-      </c>
-      <c r="D44" s="46">
-        <v>3</v>
-      </c>
-      <c r="E44" s="12" t="str">
-        <f>+E15</f>
-        <v>Tạm ứng</v>
-      </c>
-      <c r="F44" s="32"/>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="46">
-        <v>4</v>
-      </c>
-      <c r="B45" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="17">
-        <f>C16</f>
-        <v>0</v>
-      </c>
-      <c r="D45" s="46">
-        <v>4</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F45" s="33">
-        <f>F16</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="45"/>
-      <c r="D46" s="46">
-        <v>5</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F46" s="47">
-        <f>F17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" s="76"/>
-      <c r="C47" s="19">
-        <f>C18</f>
-        <v>100000</v>
-      </c>
-      <c r="D47" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" s="76"/>
-      <c r="F47" s="20">
-        <f>F18</f>
-        <v>123000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="B48" s="78"/>
-      <c r="C48" s="79"/>
-      <c r="D48" s="68">
-        <f>D19</f>
-        <v>100000</v>
-      </c>
-      <c r="E48" s="69"/>
-      <c r="F48" s="70"/>
-    </row>
-    <row r="49" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="B49" s="57"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="59">
-        <f>+D20</f>
-        <v>1000</v>
-      </c>
-      <c r="E49" s="60"/>
-      <c r="F49" s="61"/>
-    </row>
-    <row r="50" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="B50" s="63"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="65" t="e">
-        <f ca="1">D21</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E50" s="66"/>
-      <c r="F50" s="67"/>
-    </row>
-    <row r="51" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="56" t="s">
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="57"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="68">
-        <f>+D22</f>
-        <v>99000</v>
-      </c>
-      <c r="E51" s="69"/>
-      <c r="F51" s="70"/>
-    </row>
-    <row r="52" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="21"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="B53" s="54"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="F53" s="54"/>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
-      <c r="B54" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="F54" s="55"/>
+      <c r="F27" s="77"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="27">
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:F20"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
@@ -3460,43 +2930,6 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="D51:F51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="70" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/it_api/wwwroot/report/excel/Phieuluong.xlsx
+++ b/it_api/wwwroot/report/excel/Phieuluong.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\netcore\it_api\it_api\wwwroot\report\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B66D07-F97A-4959-8271-469EFAD01BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7AD4FD-1B17-4AFA-8AB6-DE5C00A0C8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phiếu lương" sheetId="5" r:id="rId1"/>
@@ -104,18 +104,12 @@
     <t>Thuế Thu Nhập Cá Nhân</t>
   </si>
   <si>
-    <t>Ăn ca</t>
-  </si>
-  <si>
     <t>Tạm ứng</t>
   </si>
   <si>
     <t>KPI</t>
   </si>
   <si>
-    <t>Phụ cấp bằng</t>
-  </si>
-  <si>
     <t>Tổng Số Tiền Lương Thực Nhận (1)</t>
   </si>
   <si>
@@ -143,22 +137,28 @@
     <t>Công Ty Cổ Phần Asta Healthcare USA</t>
   </si>
   <si>
-    <t>PC Chức vụ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xăng Xe </t>
-  </si>
-  <si>
     <t>Các Khoản Trừ Khác</t>
   </si>
   <si>
-    <t>Khác</t>
-  </si>
-  <si>
     <t>Tổng trừ</t>
   </si>
   <si>
     <t>Tổng</t>
+  </si>
+  <si>
+    <t>Đi lại</t>
+  </si>
+  <si>
+    <t>Trách nhiệm</t>
+  </si>
+  <si>
+    <t>Hiệu suất</t>
+  </si>
+  <si>
+    <t>Phụ cấp khác</t>
+  </si>
+  <si>
+    <t>Khoản cộng</t>
   </si>
 </sst>
 </file>
@@ -261,7 +261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -765,32 +765,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="double">
         <color rgb="FF000000"/>
       </right>
       <top style="hair">
@@ -829,7 +805,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -905,18 +881,57 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -935,6 +950,18 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1007,70 +1034,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2492,7 +2456,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2516,88 +2480,88 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39"/>
+      <c r="A2" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
       <c r="H2" s="2">
         <v>45509</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="59"/>
     </row>
     <row r="4" spans="1:8" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="str">
+      <c r="A4" s="60" t="str">
         <f>"PHIẾU LƯƠNG "&amp;MONTH($H$1)&amp;"/"&amp;YEAR($H$1)</f>
         <v>PHIẾU LƯƠNG 7/2024</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="45"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="62"/>
     </row>
     <row r="5" spans="1:8" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="str">
+      <c r="A5" s="63" t="str">
         <f>"Ngày lập: Ngày "&amp;DAY($H$2)&amp;" tháng "&amp;MONTH($H$2)&amp;" năm "&amp;YEAR($H$2)&amp;"                                                     Ngày thanh toán: "&amp;DAY($H$2)&amp;" tháng "&amp;MONTH($H$2)&amp;" năm "&amp;YEAR($H$2)</f>
         <v>Ngày lập: Ngày 5 tháng 8 năm 2024                                                     Ngày thanh toán: 5 tháng 8 năm 2024</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="50"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="22"/>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="52"/>
+      <c r="E6" s="69"/>
       <c r="F6" s="18">
         <v>200000</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="54"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="24"/>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="56"/>
+      <c r="E7" s="73"/>
       <c r="F7" s="20">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="58"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="23"/>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="60"/>
+      <c r="E8" s="77"/>
       <c r="F8" s="4">
         <v>24</v>
       </c>
@@ -2647,7 +2611,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="11">
-        <f>SUM(C12:C14)</f>
+        <f>SUM(C12:C15)</f>
         <v>0</v>
       </c>
       <c r="D11" s="9">
@@ -2687,7 +2651,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
@@ -2708,7 +2672,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
@@ -2724,36 +2688,38 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="25">
-        <v>3</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="11">
-        <v>10000000</v>
+      <c r="A15" s="78">
+        <v>2.4</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
       </c>
       <c r="D15" s="25">
         <v>3</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
-        <v>4</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="29"/>
+      <c r="A16" s="25">
+        <v>3</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="11">
+        <v>10000000</v>
+      </c>
       <c r="D16" s="25">
         <v>4</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F16" s="19">
         <f>$F$6*1%</f>
@@ -2761,13 +2727,15 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="78">
-        <v>5</v>
-      </c>
-      <c r="B17" s="79" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="80"/>
+      <c r="A17" s="25">
+        <v>4</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0</v>
+      </c>
       <c r="D17" s="25"/>
       <c r="E17" s="10"/>
       <c r="F17" s="26">
@@ -2775,99 +2743,99 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="30">
-        <f>C10+C11+C15 + C16 + C17</f>
+      <c r="B18" s="43"/>
+      <c r="C18" s="28">
+        <f>C10+C11+C17 + C16</f>
         <v>10100000</v>
       </c>
-      <c r="D18" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="62"/>
+      <c r="D18" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="51"/>
       <c r="F18" s="15">
         <f>F10+F14+F15+F16</f>
         <v>123000</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="35">
+      <c r="A19" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="48">
         <f>C18 -F18</f>
         <v>9977000</v>
       </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="36"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49"/>
     </row>
     <row r="20" spans="1:10" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34">
+      <c r="A20" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47">
         <v>10000</v>
       </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="36"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="49"/>
     </row>
     <row r="21" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34">
+      <c r="A21" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="47">
         <f>D19 - D20</f>
         <v>9967000</v>
       </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="49"/>
     </row>
     <row r="22" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="34">
+      <c r="A22" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="47">
         <v>1000</v>
       </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="36"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49"/>
     </row>
     <row r="23" spans="1:10" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="70" t="e">
+      <c r="A23" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32" t="e">
         <f ca="1">[2]!vnd(D22)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E23" s="71"/>
-      <c r="F23" s="72"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34"/>
       <c r="J23" s="21"/>
     </row>
     <row r="24" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="73">
+      <c r="A24" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="38">
         <f>+D21-D22</f>
         <v>9966000</v>
       </c>
-      <c r="E24" s="74"/>
-      <c r="F24" s="75"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="40"/>
     </row>
     <row r="25" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
@@ -2878,37 +2846,41 @@
       <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="76"/>
+      <c r="A26" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="41"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
-      <c r="E26" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="76"/>
+      <c r="E26" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="41"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
-      <c r="E27" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="77"/>
+      <c r="E27" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A21:C21"/>
@@ -2920,16 +2892,12 @@
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="D20:F20"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="E26:F26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="70" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/it_api/wwwroot/report/excel/Phieuluong.xlsx
+++ b/it_api/wwwroot/report/excel/Phieuluong.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\netcore\it_api\it_api\wwwroot\report\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7AD4FD-1B17-4AFA-8AB6-DE5C00A0C8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD48F36A-CBF0-4693-BDE4-CD9F79AA1ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     <t>Liên 2</t>
   </si>
   <si>
-    <t>Địa chỉ: Lô D1, D2, D6, D7 và D8 KCN Hòa Hiệp 1, P. Hòa Hiệp Bắc, Tx. Đông Hòa, T. Phú Yên</t>
-  </si>
-  <si>
     <t>Mã Nhân Viên</t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>Khoản cộng</t>
+  </si>
+  <si>
+    <t>Địa chỉ: Lô D1, D2, D6, D7 và D8 KCN Hòa Hiệp 1, P. Hòa Hiệp, T. Phú Yên</t>
   </si>
 </sst>
 </file>
@@ -887,6 +887,126 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -905,15 +1025,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -925,117 +1036,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2456,7 +2456,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2480,88 +2480,88 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
+      <c r="A2" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="40"/>
       <c r="H2" s="2">
         <v>45509</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="59"/>
+      <c r="A3" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="1:8" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="60" t="str">
+      <c r="A4" s="44" t="str">
         <f>"PHIẾU LƯƠNG "&amp;MONTH($H$1)&amp;"/"&amp;YEAR($H$1)</f>
         <v>PHIẾU LƯƠNG 7/2024</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" spans="1:8" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="63" t="str">
+      <c r="A5" s="47" t="str">
         <f>"Ngày lập: Ngày "&amp;DAY($H$2)&amp;" tháng "&amp;MONTH($H$2)&amp;" năm "&amp;YEAR($H$2)&amp;"                                                     Ngày thanh toán: "&amp;DAY($H$2)&amp;" tháng "&amp;MONTH($H$2)&amp;" năm "&amp;YEAR($H$2)</f>
         <v>Ngày lập: Ngày 5 tháng 8 năm 2024                                                     Ngày thanh toán: 5 tháng 8 năm 2024</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="49"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="51"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="69"/>
+      <c r="E6" s="53"/>
       <c r="F6" s="18">
         <v>200000</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="73"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="20">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="76" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="77"/>
+      <c r="E8" s="37"/>
       <c r="F8" s="4">
         <v>24</v>
       </c>
@@ -2571,14 +2571,14 @@
         <v>0</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="8"/>
     </row>
@@ -2587,7 +2587,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="11">
         <v>100000</v>
@@ -2596,7 +2596,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="11">
         <f>SUM(F11:F13)</f>
@@ -2608,7 +2608,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="11">
         <f>SUM(C12:C15)</f>
@@ -2618,7 +2618,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="20">
         <f>$F$6*8%</f>
@@ -2630,7 +2630,7 @@
         <v>2.1</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>1.2</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="20">
         <f>$F$6*1.5%</f>
@@ -2651,7 +2651,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>1.3</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="20">
         <f>$F$6*1%</f>
@@ -2672,7 +2672,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
@@ -2681,18 +2681,18 @@
         <v>2</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="19">
         <v>100000</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="78">
+      <c r="A15" s="29">
         <v>2.4</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
@@ -2701,7 +2701,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="14"/>
     </row>
@@ -2710,7 +2710,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="11">
         <v>10000000</v>
@@ -2719,7 +2719,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" s="19">
         <f>$F$6*1%</f>
@@ -2731,7 +2731,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="11">
         <v>0</v>
@@ -2743,99 +2743,99 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="43"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="28">
         <f>C10+C11+C17 + C16</f>
         <v>10100000</v>
       </c>
-      <c r="D18" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="51"/>
+      <c r="D18" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="66"/>
       <c r="F18" s="15">
         <f>F10+F14+F15+F16</f>
         <v>123000</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="48">
+      <c r="A19" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="60">
         <f>C18 -F18</f>
         <v>9977000</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="61"/>
     </row>
     <row r="20" spans="1:10" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47">
+      <c r="A20" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="57"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59">
         <v>10000</v>
       </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="61"/>
     </row>
     <row r="21" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="47">
+      <c r="A21" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="57"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="59">
         <f>D19 - D20</f>
         <v>9967000</v>
       </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="49"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="61"/>
     </row>
     <row r="22" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="47">
+      <c r="A22" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="63"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="59">
         <v>1000</v>
       </c>
-      <c r="E22" s="48"/>
-      <c r="F22" s="49"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="61"/>
     </row>
     <row r="23" spans="1:10" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32" t="e">
+      <c r="A23" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="70"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="72" t="e">
         <f ca="1">[2]!vnd(D22)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="34"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="74"/>
       <c r="J23" s="21"/>
     </row>
     <row r="24" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="38">
+      <c r="A24" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="63"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="75">
         <f>+D21-D22</f>
         <v>9966000</v>
       </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="40"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="77"/>
     </row>
     <row r="25" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
@@ -2846,41 +2846,32 @@
       <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="41"/>
+      <c r="A26" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="78"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
-      <c r="E26" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="41"/>
+      <c r="E26" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="78"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
-      <c r="E27" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="42"/>
+      <c r="E27" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="E26:F26"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A21:C21"/>
@@ -2897,7 +2888,16 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="70" orientation="portrait" verticalDpi="0" r:id="rId1"/>
